--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>7.424215059809214</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>4.72995622393888</v>
+        <v>14.69926045795804</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-3.334973656384144</v>
+        <v>-8.992252553594248</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-3.168866984049712</v>
+        <v>-19.76480035196674</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>4.560909432782356</v>
+        <v>7.007132997505194</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>7.256638982249464</v>
+        <v>26.6762552377682</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>6.186225077364305</v>
+        <v>8.86644397614711</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>4.172564826401248</v>
+        <v>5.982869268853186</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>3.83181543386264</v>
+        <v>3.001306214623578</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>2.421686529599976</v>
+        <v>0.08911682035466217</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.675338066250331</v>
+        <v>-2.904769335987201</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.609525540651191</v>
+        <v>-8.13908495190001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.869876812413488</v>
+        <v>6.148460028297587</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>6.899744007404074</v>
+        <v>9.131012060398724</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.780657173841774</v>
+        <v>5.171596082708629</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>4.483430373590314</v>
+        <v>5.986046065677453</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>5.497610919404838</v>
+        <v>4.337699953939178</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>5.837588357825307</v>
+        <v>5.703761500281579</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.974208541416703</v>
+        <v>4.073887526082065</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>5.293487100288519</v>
+        <v>1.602827009554897</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>6.058811533678909</v>
+        <v>2.281540236993274</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>5.415133326105437</v>
+        <v>-4.308894244053674</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>5.760559326160664</v>
+        <v>3.436682959168125</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>9.976546382747763</v>
+        <v>2.82953744009995</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>1.47206002867224</v>
+        <v>-2.305533699949835</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-1.710514186497536</v>
+        <v>-6.248031846400004</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.103538581680352</v>
+        <v>5.121832664816339</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>10.97713304240637</v>
+        <v>12.25634856540583</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.465954159663686</v>
+        <v>8.333485306093348</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>6.437780390900905</v>
+        <v>7.042341419899389</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.275468721311669</v>
+        <v>0.08405665459807476</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.3141380551509032</v>
+        <v>0.4484505192704713</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.5443511672318047</v>
+        <v>-2.055826728150212</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>3.196471841206394</v>
+        <v>3.376972582720295</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5250852424143471</v>
+        <v>1.378024997308636</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.1697451685185314</v>
+        <v>0.4446401485209472</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>5.121832664816339</v>
+        <v>5.866851037823739</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>12.25634856540583</v>
+        <v>16.14645080511217</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>8.333485306093348</v>
+        <v>7.65308459027223</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>7.042341419899389</v>
+        <v>3.764943356222705</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.08405665459807476</v>
+        <v>-0.7255213069668365</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.4484505192704713</v>
+        <v>-3.570724939213799</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-2.055826728150212</v>
+        <v>-2.227101209415505</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>3.376972582720295</v>
+        <v>2.482871059012237</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.378024997308636</v>
+        <v>2.163964137318475</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.4446401485209472</v>
+        <v>4.369038437191275</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>7.424215059809214</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
@@ -440,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-8.992252553594248</v>
+        <v>-8.992252553594259</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-19.76480035196674</v>
+        <v>-19.76480035196673</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +454,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>7.007132997505194</v>
+        <v>7.007132997505217</v>
       </c>
       <c r="D4">
         <v>2011</v>
@@ -474,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>8.86644397614711</v>
+        <v>8.866443976147087</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>3.001306214623578</v>
+        <v>3.0013062146236</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -508,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-2.904769335987201</v>
+        <v>-2.90476933598719</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -531,7 +528,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>9.131012060398724</v>
+        <v>9.131012060398703</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -576,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.073887526082065</v>
+        <v>4.073887526082043</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -599,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-4.308894244053674</v>
+        <v>-4.308894244053663</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -627,7 +624,7 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-2.305533699949835</v>
+        <v>-2.305533699949858</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -650,7 +647,7 @@
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>16.14645080511217</v>
+        <v>16.14645080511215</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -684,7 +681,7 @@
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-3.570724939213799</v>
+        <v>-3.570724939213787</v>
       </c>
     </row>
     <row r="18" spans="1:5">
